--- a/Tarefas.xlsx
+++ b/Tarefas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Igor\Desktop\RPA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Igor\Desktop\RPA\RPA-AP1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{AA44D96D-D567-4DB3-A9B9-464144B03C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED66C66-1B67-43E5-A03A-F3C9FD20CF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{50BEF468-4C8F-4E83-85DE-9A6B2AB58A33}"/>
   </bookViews>
@@ -167,7 +167,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -176,9 +176,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -498,13 +495,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54741083-6DCB-46BA-A467-B2ACA94EB515}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="142" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -724,7 +722,7 @@
       <c r="B20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>27</v>
       </c>
     </row>

--- a/Tarefas.xlsx
+++ b/Tarefas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Igor\Desktop\RPA\RPA-AP1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3F98A1-433D-4F92-BC79-9849C93301F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FEC1F0-B11D-4501-B6DC-64E06DEF47DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="22">
   <si>
     <t>Tarefa</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>Digitar Senha</t>
-  </si>
-  <si>
-    <t>Harminda#2403</t>
   </si>
   <si>
     <t>Logout</t>
@@ -378,7 +375,7 @@
   <dimension ref="A1:C1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -419,7 +416,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -528,9 +525,7 @@
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="3">
-        <v>2303701</v>
-      </c>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -572,9 +567,7 @@
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -655,13 +648,13 @@
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
